--- a/Datos/Anuario2024/120502_IncidendiosForestalesAlbufera.xlsx
+++ b/Datos/Anuario2024/120502_IncidendiosForestalesAlbufera.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="13" r:id="rId1"/>
+    <sheet name="1" sheetId="15" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="59" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -56,96 +62,358 @@
     <definedName name="_R6_5">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">Total Incendios </t>
+  </si>
+  <si>
+    <r>
+      <t>Total m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> quemados</t>
+    </r>
+  </si>
+  <si>
+    <t>Incendios</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> quemados</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Menos de 5.000 m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> quemados </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Más de 5.000 m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> quemados</t>
+    </r>
+  </si>
+  <si>
+    <t>Fuente: Servicio Devesa Albufera. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>INCENDIOS EN EL PARQUE NATURAL DE LA ALBUFERA</t>
+  </si>
+  <si>
+    <t>1. Incendios forestales. 2023</t>
+  </si>
+  <si>
+    <r>
+      <t>Nota: Fecha incendios: 11/08/2023 (15 m</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), 12/08/2023 (65 m</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), 01/09/2023 (1.100 m</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), 07/10/2023 (300 m</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), 18/10/2023 (2 incendios, 4.331 m</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), 20/10/2023 (9 m</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), 21/10/2023 (3 incendios, 144.318 m</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
-      <vertAlign val="superscript"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
-      <vertAlign val="superscript"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -177,73 +445,73 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 6" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -313,12 +581,80 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5027295</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="379095" y="184785"/>
+          <a:ext cx="5019675" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2162,1136 +2498,1094 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja23">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:DJ739"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="11.42578125" customWidth="1" style="4" min="4" max="114"/>
+    <col min="4" max="114" width="11.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>INCENDIOS EN EL PARQUE NATURAL DE LA ALBUFERA</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="4"/>
-    <row r="3" customFormat="1" s="4"/>
-    <row r="4" customFormat="1" s="4"/>
-    <row r="5" customFormat="1" s="4"/>
-    <row r="6" customFormat="1" s="4"/>
-    <row r="7" customFormat="1" s="4"/>
-    <row r="8" customFormat="1" s="4"/>
-    <row r="9" customFormat="1" s="4"/>
-    <row r="10" customFormat="1" s="4"/>
-    <row r="11" customFormat="1" s="4"/>
-    <row r="12" customFormat="1" s="4"/>
-    <row r="13" customFormat="1" s="4"/>
-    <row r="14" customFormat="1" s="4"/>
-    <row r="15" customFormat="1" s="4"/>
-    <row r="16" customFormat="1" s="4"/>
-    <row r="17" customFormat="1" s="4"/>
-    <row r="18" customFormat="1" s="4"/>
-    <row r="19" customFormat="1" s="4"/>
-    <row r="20" customFormat="1" s="4"/>
-    <row r="21" customFormat="1" s="4"/>
-    <row r="22" customFormat="1" s="4"/>
-    <row r="23" customFormat="1" s="4"/>
-    <row r="24" customFormat="1" s="4"/>
-    <row r="25" customFormat="1" s="4"/>
-    <row r="26" customFormat="1" s="4"/>
-    <row r="27" customFormat="1" s="4"/>
-    <row r="28" customFormat="1" s="4"/>
-    <row r="29" customFormat="1" s="4"/>
-    <row r="30" customFormat="1" s="4"/>
-    <row r="31" customFormat="1" s="4"/>
-    <row r="32" customFormat="1" s="4"/>
-    <row r="33" customFormat="1" s="4"/>
-    <row r="34" customFormat="1" s="4"/>
-    <row r="35" customFormat="1" s="4"/>
-    <row r="36" customFormat="1" s="4"/>
-    <row r="37" customFormat="1" s="4"/>
-    <row r="38" customFormat="1" s="4"/>
-    <row r="39" customFormat="1" s="4"/>
-    <row r="40" customFormat="1" s="4"/>
-    <row r="41" customFormat="1" s="4"/>
-    <row r="42" customFormat="1" s="4"/>
-    <row r="43" customFormat="1" s="4"/>
-    <row r="44" customFormat="1" s="4"/>
-    <row r="45" customFormat="1" s="4"/>
-    <row r="46" customFormat="1" s="4"/>
-    <row r="47" customFormat="1" s="4"/>
-    <row r="48" customFormat="1" s="4"/>
-    <row r="49" customFormat="1" s="4"/>
-    <row r="50" customFormat="1" s="4"/>
-    <row r="51" customFormat="1" s="4"/>
-    <row r="52" customFormat="1" s="4"/>
-    <row r="53" customFormat="1" s="4"/>
-    <row r="54" customFormat="1" s="4"/>
-    <row r="55" customFormat="1" s="4"/>
-    <row r="56" customFormat="1" s="4"/>
-    <row r="57" customFormat="1" s="4"/>
-    <row r="58" customFormat="1" s="4"/>
-    <row r="59" customFormat="1" s="4"/>
-    <row r="60" customFormat="1" s="4"/>
-    <row r="61" customFormat="1" s="4"/>
-    <row r="62" customFormat="1" s="4"/>
-    <row r="63" customFormat="1" s="4"/>
-    <row r="64" customFormat="1" s="4"/>
-    <row r="65" customFormat="1" s="4"/>
-    <row r="66" customFormat="1" s="4"/>
-    <row r="67" customFormat="1" s="4"/>
-    <row r="68" customFormat="1" s="4"/>
-    <row r="69" customFormat="1" s="4"/>
-    <row r="70" customFormat="1" s="4"/>
-    <row r="71" customFormat="1" s="4"/>
-    <row r="72" customFormat="1" s="4"/>
-    <row r="73" customFormat="1" s="4"/>
-    <row r="74" customFormat="1" s="4"/>
-    <row r="75" customFormat="1" s="4"/>
-    <row r="76" customFormat="1" s="4"/>
-    <row r="77" customFormat="1" s="4"/>
-    <row r="78" customFormat="1" s="4"/>
-    <row r="79" customFormat="1" s="4"/>
-    <row r="80" customFormat="1" s="4"/>
-    <row r="81" customFormat="1" s="4"/>
-    <row r="82" customFormat="1" s="4"/>
-    <row r="83" customFormat="1" s="4"/>
-    <row r="84" customFormat="1" s="4"/>
-    <row r="85" customFormat="1" s="4"/>
-    <row r="86" customFormat="1" s="4"/>
-    <row r="87" customFormat="1" s="4"/>
-    <row r="88" customFormat="1" s="4"/>
-    <row r="89" customFormat="1" s="4"/>
-    <row r="90" customFormat="1" s="4"/>
-    <row r="91" customFormat="1" s="4"/>
-    <row r="92" customFormat="1" s="4"/>
-    <row r="93" customFormat="1" s="4"/>
-    <row r="94" customFormat="1" s="4"/>
-    <row r="95" customFormat="1" s="4"/>
-    <row r="96" customFormat="1" s="4"/>
-    <row r="97" customFormat="1" s="4"/>
-    <row r="98" customFormat="1" s="4"/>
-    <row r="99" customFormat="1" s="4"/>
-    <row r="100" customFormat="1" s="4"/>
-    <row r="101" customFormat="1" s="4"/>
-    <row r="102" customFormat="1" s="4"/>
-    <row r="103" customFormat="1" s="4"/>
-    <row r="104" customFormat="1" s="4"/>
-    <row r="105" customFormat="1" s="4"/>
-    <row r="106" customFormat="1" s="4"/>
-    <row r="107" customFormat="1" s="4"/>
-    <row r="108" customFormat="1" s="4"/>
-    <row r="109" customFormat="1" s="4"/>
-    <row r="110" customFormat="1" s="4"/>
-    <row r="111" customFormat="1" s="4"/>
-    <row r="112" customFormat="1" s="4"/>
-    <row r="113" customFormat="1" s="4"/>
-    <row r="114" customFormat="1" s="4"/>
-    <row r="115" customFormat="1" s="4"/>
-    <row r="116" customFormat="1" s="4"/>
-    <row r="117" customFormat="1" s="4"/>
-    <row r="118" customFormat="1" s="4"/>
-    <row r="119" customFormat="1" s="4"/>
-    <row r="120" customFormat="1" s="4"/>
-    <row r="121" customFormat="1" s="4"/>
-    <row r="122" customFormat="1" s="4"/>
-    <row r="123" customFormat="1" s="4"/>
-    <row r="124" customFormat="1" s="4"/>
-    <row r="125" customFormat="1" s="4"/>
-    <row r="126" customFormat="1" s="4"/>
-    <row r="127" customFormat="1" s="4"/>
-    <row r="128" customFormat="1" s="4"/>
-    <row r="129" customFormat="1" s="4"/>
-    <row r="130" customFormat="1" s="4"/>
-    <row r="131" customFormat="1" s="4"/>
-    <row r="132" customFormat="1" s="4"/>
-    <row r="133" customFormat="1" s="4"/>
-    <row r="134" customFormat="1" s="4"/>
-    <row r="135" customFormat="1" s="4"/>
-    <row r="136" customFormat="1" s="4"/>
-    <row r="137" customFormat="1" s="4"/>
-    <row r="138" customFormat="1" s="4"/>
-    <row r="139" customFormat="1" s="4"/>
-    <row r="140" customFormat="1" s="4"/>
-    <row r="141" customFormat="1" s="4"/>
-    <row r="142" customFormat="1" s="4"/>
-    <row r="143" customFormat="1" s="4"/>
-    <row r="144" customFormat="1" s="4"/>
-    <row r="145" customFormat="1" s="4"/>
-    <row r="146" customFormat="1" s="4"/>
-    <row r="147" customFormat="1" s="4"/>
-    <row r="148" customFormat="1" s="4"/>
-    <row r="149" customFormat="1" s="4"/>
-    <row r="150" customFormat="1" s="4"/>
-    <row r="151" customFormat="1" s="4"/>
-    <row r="152" customFormat="1" s="4"/>
-    <row r="153" customFormat="1" s="4"/>
-    <row r="154" customFormat="1" s="4"/>
-    <row r="155" customFormat="1" s="4"/>
-    <row r="156" customFormat="1" s="4"/>
-    <row r="157" customFormat="1" s="4"/>
-    <row r="158" customFormat="1" s="4"/>
-    <row r="159" customFormat="1" s="4"/>
-    <row r="160" customFormat="1" s="4"/>
-    <row r="161" customFormat="1" s="4"/>
-    <row r="162" customFormat="1" s="4"/>
-    <row r="163" customFormat="1" s="4"/>
-    <row r="164" customFormat="1" s="4"/>
-    <row r="165" customFormat="1" s="4"/>
-    <row r="166" customFormat="1" s="4"/>
-    <row r="167" customFormat="1" s="4"/>
-    <row r="168" customFormat="1" s="4"/>
-    <row r="169" customFormat="1" s="4"/>
-    <row r="170" customFormat="1" s="4"/>
-    <row r="171" customFormat="1" s="4"/>
-    <row r="172" customFormat="1" s="4"/>
-    <row r="173" customFormat="1" s="4"/>
-    <row r="174" customFormat="1" s="4"/>
-    <row r="175" customFormat="1" s="4"/>
-    <row r="176" customFormat="1" s="4"/>
-    <row r="177" customFormat="1" s="4"/>
-    <row r="178" customFormat="1" s="4"/>
-    <row r="179" customFormat="1" s="4"/>
-    <row r="180" customFormat="1" s="4"/>
-    <row r="181" customFormat="1" s="4"/>
-    <row r="182" customFormat="1" s="4"/>
-    <row r="183" customFormat="1" s="4"/>
-    <row r="184" customFormat="1" s="4"/>
-    <row r="185" customFormat="1" s="4"/>
-    <row r="186" customFormat="1" s="4"/>
-    <row r="187" customFormat="1" s="4"/>
-    <row r="188" customFormat="1" s="4"/>
-    <row r="189" customFormat="1" s="4"/>
-    <row r="190" customFormat="1" s="4"/>
-    <row r="191" customFormat="1" s="4"/>
-    <row r="192" customFormat="1" s="4"/>
-    <row r="193" customFormat="1" s="4"/>
-    <row r="194" customFormat="1" s="4"/>
-    <row r="195" customFormat="1" s="4"/>
-    <row r="196" customFormat="1" s="4"/>
-    <row r="197" customFormat="1" s="4"/>
-    <row r="198" customFormat="1" s="4"/>
-    <row r="199" customFormat="1" s="4"/>
-    <row r="200" customFormat="1" s="4"/>
-    <row r="201" customFormat="1" s="4"/>
-    <row r="202" customFormat="1" s="4"/>
-    <row r="203" customFormat="1" s="4"/>
-    <row r="204" customFormat="1" s="4"/>
-    <row r="205" customFormat="1" s="4"/>
-    <row r="206" customFormat="1" s="4"/>
-    <row r="207" customFormat="1" s="4"/>
-    <row r="208" customFormat="1" s="4"/>
-    <row r="209" customFormat="1" s="4"/>
-    <row r="210" customFormat="1" s="4"/>
-    <row r="211" customFormat="1" s="4"/>
-    <row r="212" customFormat="1" s="4"/>
-    <row r="213" customFormat="1" s="4"/>
-    <row r="214" customFormat="1" s="4"/>
-    <row r="215" customFormat="1" s="4"/>
-    <row r="216" customFormat="1" s="4"/>
-    <row r="217" customFormat="1" s="4"/>
-    <row r="218" customFormat="1" s="4"/>
-    <row r="219" customFormat="1" s="4"/>
-    <row r="220" customFormat="1" s="4"/>
-    <row r="221" customFormat="1" s="4"/>
-    <row r="222" customFormat="1" s="4"/>
-    <row r="223" customFormat="1" s="4"/>
-    <row r="224" customFormat="1" s="4"/>
-    <row r="225" customFormat="1" s="4"/>
-    <row r="226" customFormat="1" s="4"/>
-    <row r="227" customFormat="1" s="4"/>
-    <row r="228" customFormat="1" s="4"/>
-    <row r="229" customFormat="1" s="4"/>
-    <row r="230" customFormat="1" s="4"/>
-    <row r="231" customFormat="1" s="4"/>
-    <row r="232" customFormat="1" s="4"/>
-    <row r="233" customFormat="1" s="4"/>
-    <row r="234" customFormat="1" s="4"/>
-    <row r="235" customFormat="1" s="4"/>
-    <row r="236" customFormat="1" s="4"/>
-    <row r="237" customFormat="1" s="4"/>
-    <row r="238" customFormat="1" s="4"/>
-    <row r="239" customFormat="1" s="4"/>
-    <row r="240" customFormat="1" s="4"/>
-    <row r="241" customFormat="1" s="4"/>
-    <row r="242" customFormat="1" s="4"/>
-    <row r="243" customFormat="1" s="4"/>
-    <row r="244" customFormat="1" s="4"/>
-    <row r="245" customFormat="1" s="4"/>
-    <row r="246" customFormat="1" s="4"/>
-    <row r="247" customFormat="1" s="4"/>
-    <row r="248" customFormat="1" s="4"/>
-    <row r="249" customFormat="1" s="4"/>
-    <row r="250" customFormat="1" s="4"/>
-    <row r="251" customFormat="1" s="4"/>
-    <row r="252" customFormat="1" s="4"/>
-    <row r="253" customFormat="1" s="4"/>
-    <row r="254" customFormat="1" s="4"/>
-    <row r="255" customFormat="1" s="4"/>
-    <row r="256" customFormat="1" s="4"/>
-    <row r="257" customFormat="1" s="4"/>
-    <row r="258" customFormat="1" s="4"/>
-    <row r="259" customFormat="1" s="4"/>
-    <row r="260" customFormat="1" s="4"/>
-    <row r="261" customFormat="1" s="4"/>
-    <row r="262" customFormat="1" s="4"/>
-    <row r="263" customFormat="1" s="4"/>
-    <row r="264" customFormat="1" s="4"/>
-    <row r="265" customFormat="1" s="4"/>
-    <row r="266" customFormat="1" s="4"/>
-    <row r="267" customFormat="1" s="4"/>
-    <row r="268" customFormat="1" s="4"/>
-    <row r="269" customFormat="1" s="4"/>
-    <row r="270" customFormat="1" s="4"/>
-    <row r="271" customFormat="1" s="4"/>
-    <row r="272" customFormat="1" s="4"/>
-    <row r="273" customFormat="1" s="4"/>
-    <row r="274" customFormat="1" s="4"/>
-    <row r="275" customFormat="1" s="4"/>
-    <row r="276" customFormat="1" s="4"/>
-    <row r="277" customFormat="1" s="4"/>
-    <row r="278" customFormat="1" s="4"/>
-    <row r="279" customFormat="1" s="4"/>
-    <row r="280" customFormat="1" s="4"/>
-    <row r="281" customFormat="1" s="4"/>
-    <row r="282" customFormat="1" s="4"/>
-    <row r="283" customFormat="1" s="4"/>
-    <row r="284" customFormat="1" s="4"/>
-    <row r="285" customFormat="1" s="4"/>
-    <row r="286" customFormat="1" s="4"/>
-    <row r="287" customFormat="1" s="4"/>
-    <row r="288" customFormat="1" s="4"/>
-    <row r="289" customFormat="1" s="4"/>
-    <row r="290" customFormat="1" s="4"/>
-    <row r="291" customFormat="1" s="4"/>
-    <row r="292" customFormat="1" s="4"/>
-    <row r="293" customFormat="1" s="4"/>
-    <row r="294" customFormat="1" s="4"/>
-    <row r="295" customFormat="1" s="4"/>
-    <row r="296" customFormat="1" s="4"/>
-    <row r="297" customFormat="1" s="4"/>
-    <row r="298" customFormat="1" s="4"/>
-    <row r="299" customFormat="1" s="4"/>
-    <row r="300" customFormat="1" s="4"/>
-    <row r="301" customFormat="1" s="4"/>
-    <row r="302" customFormat="1" s="4"/>
-    <row r="303" customFormat="1" s="4"/>
-    <row r="304" customFormat="1" s="4"/>
-    <row r="305" customFormat="1" s="4"/>
-    <row r="306" customFormat="1" s="4"/>
-    <row r="307" customFormat="1" s="4"/>
-    <row r="308" customFormat="1" s="4"/>
-    <row r="309" customFormat="1" s="4"/>
-    <row r="310" customFormat="1" s="4"/>
-    <row r="311" customFormat="1" s="4"/>
-    <row r="312" customFormat="1" s="4"/>
-    <row r="313" customFormat="1" s="4"/>
-    <row r="314" customFormat="1" s="4"/>
-    <row r="315" customFormat="1" s="4"/>
-    <row r="316" customFormat="1" s="4"/>
-    <row r="317" customFormat="1" s="4"/>
-    <row r="318" customFormat="1" s="4"/>
-    <row r="319" customFormat="1" s="4"/>
-    <row r="320" customFormat="1" s="4"/>
-    <row r="321" customFormat="1" s="4"/>
-    <row r="322" customFormat="1" s="4"/>
-    <row r="323" customFormat="1" s="4"/>
-    <row r="324" customFormat="1" s="4"/>
-    <row r="325" customFormat="1" s="4"/>
-    <row r="326" customFormat="1" s="4"/>
-    <row r="327" customFormat="1" s="4"/>
-    <row r="328" customFormat="1" s="4"/>
-    <row r="329" customFormat="1" s="4"/>
-    <row r="330" customFormat="1" s="4"/>
-    <row r="331" customFormat="1" s="4"/>
-    <row r="332" customFormat="1" s="4"/>
-    <row r="333" customFormat="1" s="4"/>
-    <row r="334" customFormat="1" s="4"/>
-    <row r="335" customFormat="1" s="4"/>
-    <row r="336" customFormat="1" s="4"/>
-    <row r="337" customFormat="1" s="4"/>
-    <row r="338" customFormat="1" s="4"/>
-    <row r="339" customFormat="1" s="4"/>
-    <row r="340" customFormat="1" s="4"/>
-    <row r="341" customFormat="1" s="4"/>
-    <row r="342" customFormat="1" s="4"/>
-    <row r="343" customFormat="1" s="4"/>
-    <row r="344" customFormat="1" s="4"/>
-    <row r="345" customFormat="1" s="4"/>
-    <row r="346" customFormat="1" s="4"/>
-    <row r="347" customFormat="1" s="4"/>
-    <row r="348" customFormat="1" s="4"/>
-    <row r="349" customFormat="1" s="4"/>
-    <row r="350" customFormat="1" s="4"/>
-    <row r="351" customFormat="1" s="4"/>
-    <row r="352" customFormat="1" s="4"/>
-    <row r="353" customFormat="1" s="4"/>
-    <row r="354" customFormat="1" s="4"/>
-    <row r="355" customFormat="1" s="4"/>
-    <row r="356" customFormat="1" s="4"/>
-    <row r="357" customFormat="1" s="4"/>
-    <row r="358" customFormat="1" s="4"/>
-    <row r="359" customFormat="1" s="4"/>
-    <row r="360" customFormat="1" s="4"/>
-    <row r="361" customFormat="1" s="4"/>
-    <row r="362" customFormat="1" s="4"/>
-    <row r="363" customFormat="1" s="4"/>
-    <row r="364" customFormat="1" s="4"/>
-    <row r="365" customFormat="1" s="4"/>
-    <row r="366" customFormat="1" s="4"/>
-    <row r="367" customFormat="1" s="4"/>
-    <row r="368" customFormat="1" s="4"/>
-    <row r="369" customFormat="1" s="4"/>
-    <row r="370" customFormat="1" s="4"/>
-    <row r="371" customFormat="1" s="4"/>
-    <row r="372" customFormat="1" s="4"/>
-    <row r="373" customFormat="1" s="4"/>
-    <row r="374" customFormat="1" s="4"/>
-    <row r="375" customFormat="1" s="4"/>
-    <row r="376" customFormat="1" s="4"/>
-    <row r="377" customFormat="1" s="4"/>
-    <row r="378" customFormat="1" s="4"/>
-    <row r="379" customFormat="1" s="4"/>
-    <row r="380" customFormat="1" s="4"/>
-    <row r="381" customFormat="1" s="4"/>
-    <row r="382" customFormat="1" s="4"/>
-    <row r="383" customFormat="1" s="4"/>
-    <row r="384" customFormat="1" s="4"/>
-    <row r="385" customFormat="1" s="4"/>
-    <row r="386" customFormat="1" s="4"/>
-    <row r="387" customFormat="1" s="4"/>
-    <row r="388" customFormat="1" s="4"/>
-    <row r="389" customFormat="1" s="4"/>
-    <row r="390" customFormat="1" s="4"/>
-    <row r="391" customFormat="1" s="4"/>
-    <row r="392" customFormat="1" s="4"/>
-    <row r="393" customFormat="1" s="4"/>
-    <row r="394" customFormat="1" s="4"/>
-    <row r="395" customFormat="1" s="4"/>
-    <row r="396" customFormat="1" s="4"/>
-    <row r="397" customFormat="1" s="4"/>
-    <row r="398" customFormat="1" s="4"/>
-    <row r="399" customFormat="1" s="4"/>
-    <row r="400" customFormat="1" s="4"/>
-    <row r="401" customFormat="1" s="4"/>
-    <row r="402" customFormat="1" s="4"/>
-    <row r="403" customFormat="1" s="4"/>
-    <row r="404" customFormat="1" s="4"/>
-    <row r="405" customFormat="1" s="4"/>
-    <row r="406" customFormat="1" s="4"/>
-    <row r="407" customFormat="1" s="4"/>
-    <row r="408" customFormat="1" s="4"/>
-    <row r="409" customFormat="1" s="4"/>
-    <row r="410" customFormat="1" s="4"/>
-    <row r="411" customFormat="1" s="4"/>
-    <row r="412" customFormat="1" s="4"/>
-    <row r="413" customFormat="1" s="4"/>
-    <row r="414" customFormat="1" s="4"/>
-    <row r="415" customFormat="1" s="4"/>
-    <row r="416" customFormat="1" s="4"/>
-    <row r="417" customFormat="1" s="4"/>
-    <row r="418" customFormat="1" s="4"/>
-    <row r="419" customFormat="1" s="4"/>
-    <row r="420" customFormat="1" s="4"/>
-    <row r="421" customFormat="1" s="4"/>
-    <row r="422" customFormat="1" s="4"/>
-    <row r="423" customFormat="1" s="4"/>
-    <row r="424" customFormat="1" s="4"/>
-    <row r="425" customFormat="1" s="4"/>
-    <row r="426" customFormat="1" s="4"/>
-    <row r="427" customFormat="1" s="4"/>
-    <row r="428" customFormat="1" s="4"/>
-    <row r="429" customFormat="1" s="4"/>
-    <row r="430" customFormat="1" s="4"/>
-    <row r="431" customFormat="1" s="4"/>
-    <row r="432" customFormat="1" s="4"/>
-    <row r="433" customFormat="1" s="4"/>
-    <row r="434" customFormat="1" s="4"/>
-    <row r="435" customFormat="1" s="4"/>
-    <row r="436" customFormat="1" s="4"/>
-    <row r="437" customFormat="1" s="4"/>
-    <row r="438" customFormat="1" s="4"/>
-    <row r="439" customFormat="1" s="4"/>
-    <row r="440" customFormat="1" s="4"/>
-    <row r="441" customFormat="1" s="4"/>
-    <row r="442" customFormat="1" s="4"/>
-    <row r="443" customFormat="1" s="4"/>
-    <row r="444" customFormat="1" s="4"/>
-    <row r="445" customFormat="1" s="4"/>
-    <row r="446" customFormat="1" s="4"/>
-    <row r="447" customFormat="1" s="4"/>
-    <row r="448" customFormat="1" s="4"/>
-    <row r="449" customFormat="1" s="4"/>
-    <row r="450" customFormat="1" s="4"/>
-    <row r="451" customFormat="1" s="4"/>
-    <row r="452" customFormat="1" s="4"/>
-    <row r="453" customFormat="1" s="4"/>
-    <row r="454" customFormat="1" s="4"/>
-    <row r="455" customFormat="1" s="4"/>
-    <row r="456" customFormat="1" s="4"/>
-    <row r="457" customFormat="1" s="4"/>
-    <row r="458" customFormat="1" s="4"/>
-    <row r="459" customFormat="1" s="4"/>
-    <row r="460" customFormat="1" s="4"/>
-    <row r="461" customFormat="1" s="4"/>
-    <row r="462" customFormat="1" s="4"/>
-    <row r="463" customFormat="1" s="4"/>
-    <row r="464" customFormat="1" s="4"/>
-    <row r="465" customFormat="1" s="4"/>
-    <row r="466" customFormat="1" s="4"/>
-    <row r="467" customFormat="1" s="4"/>
-    <row r="468" customFormat="1" s="4"/>
-    <row r="469" customFormat="1" s="4"/>
-    <row r="470" customFormat="1" s="4"/>
-    <row r="471" customFormat="1" s="4"/>
-    <row r="472" customFormat="1" s="4"/>
-    <row r="473" customFormat="1" s="4"/>
-    <row r="474" customFormat="1" s="4"/>
-    <row r="475" customFormat="1" s="4"/>
-    <row r="476" customFormat="1" s="4"/>
-    <row r="477" customFormat="1" s="4"/>
-    <row r="478" customFormat="1" s="4"/>
-    <row r="479" customFormat="1" s="4"/>
-    <row r="480" customFormat="1" s="4"/>
-    <row r="481" customFormat="1" s="4"/>
-    <row r="482" customFormat="1" s="4"/>
-    <row r="483" customFormat="1" s="4"/>
-    <row r="484" customFormat="1" s="4"/>
-    <row r="485" customFormat="1" s="4"/>
-    <row r="486" customFormat="1" s="4"/>
-    <row r="487" customFormat="1" s="4"/>
-    <row r="488" customFormat="1" s="4"/>
-    <row r="489" customFormat="1" s="4"/>
-    <row r="490" customFormat="1" s="4"/>
-    <row r="491" customFormat="1" s="4"/>
-    <row r="492" customFormat="1" s="4"/>
-    <row r="493" customFormat="1" s="4"/>
-    <row r="494" customFormat="1" s="4"/>
-    <row r="495" customFormat="1" s="4"/>
-    <row r="496" customFormat="1" s="4"/>
-    <row r="497" customFormat="1" s="4"/>
-    <row r="498" customFormat="1" s="4"/>
-    <row r="499" customFormat="1" s="4"/>
-    <row r="500" customFormat="1" s="4"/>
-    <row r="501" customFormat="1" s="4"/>
-    <row r="502" customFormat="1" s="4"/>
-    <row r="503" customFormat="1" s="4"/>
-    <row r="504" customFormat="1" s="4"/>
-    <row r="505" customFormat="1" s="4"/>
-    <row r="506" customFormat="1" s="4"/>
-    <row r="507" customFormat="1" s="4"/>
-    <row r="508" customFormat="1" s="4"/>
-    <row r="509" customFormat="1" s="4"/>
-    <row r="510" customFormat="1" s="4"/>
-    <row r="511" customFormat="1" s="4"/>
-    <row r="512" customFormat="1" s="4"/>
-    <row r="513" customFormat="1" s="4"/>
-    <row r="514" customFormat="1" s="4"/>
-    <row r="515" customFormat="1" s="4"/>
-    <row r="516" customFormat="1" s="4"/>
-    <row r="517" customFormat="1" s="4"/>
-    <row r="518" customFormat="1" s="4"/>
-    <row r="519" customFormat="1" s="4"/>
-    <row r="520" customFormat="1" s="4"/>
-    <row r="521" customFormat="1" s="4"/>
-    <row r="522" customFormat="1" s="4"/>
-    <row r="523" customFormat="1" s="4"/>
-    <row r="524" customFormat="1" s="4"/>
-    <row r="525" customFormat="1" s="4"/>
-    <row r="526" customFormat="1" s="4"/>
-    <row r="527" customFormat="1" s="4"/>
-    <row r="528" customFormat="1" s="4"/>
-    <row r="529" customFormat="1" s="4"/>
-    <row r="530" customFormat="1" s="4"/>
-    <row r="531" customFormat="1" s="4"/>
-    <row r="532" customFormat="1" s="4"/>
-    <row r="533" customFormat="1" s="4"/>
-    <row r="534" customFormat="1" s="4"/>
-    <row r="535" customFormat="1" s="4"/>
-    <row r="536" customFormat="1" s="4"/>
-    <row r="537" customFormat="1" s="4"/>
-    <row r="538" customFormat="1" s="4"/>
-    <row r="539" customFormat="1" s="4"/>
-    <row r="540" customFormat="1" s="4"/>
-    <row r="541" customFormat="1" s="4"/>
-    <row r="542" customFormat="1" s="4"/>
-    <row r="543" customFormat="1" s="4"/>
-    <row r="544" customFormat="1" s="4"/>
-    <row r="545" customFormat="1" s="4"/>
-    <row r="546" customFormat="1" s="4"/>
-    <row r="547" customFormat="1" s="4"/>
-    <row r="548" customFormat="1" s="4"/>
-    <row r="549" customFormat="1" s="4"/>
-    <row r="550" customFormat="1" s="4"/>
-    <row r="551" customFormat="1" s="4"/>
-    <row r="552" customFormat="1" s="4"/>
-    <row r="553" customFormat="1" s="4"/>
-    <row r="554" customFormat="1" s="4"/>
-    <row r="555" customFormat="1" s="4"/>
-    <row r="556" customFormat="1" s="4"/>
-    <row r="557" customFormat="1" s="4"/>
-    <row r="558" customFormat="1" s="4"/>
-    <row r="559" customFormat="1" s="4"/>
-    <row r="560" customFormat="1" s="4"/>
-    <row r="561" customFormat="1" s="4"/>
-    <row r="562" customFormat="1" s="4"/>
-    <row r="563" customFormat="1" s="4"/>
-    <row r="564" customFormat="1" s="4"/>
-    <row r="565" customFormat="1" s="4"/>
-    <row r="566" customFormat="1" s="4"/>
-    <row r="567" customFormat="1" s="4"/>
-    <row r="568" customFormat="1" s="4"/>
-    <row r="569" customFormat="1" s="4"/>
-    <row r="570" customFormat="1" s="4"/>
-    <row r="571" customFormat="1" s="4"/>
-    <row r="572" customFormat="1" s="4"/>
-    <row r="573" customFormat="1" s="4"/>
-    <row r="574" customFormat="1" s="4"/>
-    <row r="575" customFormat="1" s="4"/>
-    <row r="576" customFormat="1" s="4"/>
-    <row r="577" customFormat="1" s="4"/>
-    <row r="578" customFormat="1" s="4"/>
-    <row r="579" customFormat="1" s="4"/>
-    <row r="580" customFormat="1" s="4"/>
-    <row r="581" customFormat="1" s="4"/>
-    <row r="582" customFormat="1" s="4"/>
-    <row r="583" customFormat="1" s="4"/>
-    <row r="584" customFormat="1" s="4"/>
-    <row r="585" customFormat="1" s="4"/>
-    <row r="586" customFormat="1" s="4"/>
-    <row r="587" customFormat="1" s="4"/>
-    <row r="588" customFormat="1" s="4"/>
-    <row r="589" customFormat="1" s="4"/>
-    <row r="590" customFormat="1" s="4"/>
-    <row r="591" customFormat="1" s="4"/>
-    <row r="592" customFormat="1" s="4"/>
-    <row r="593" customFormat="1" s="4"/>
-    <row r="594" customFormat="1" s="4"/>
-    <row r="595" customFormat="1" s="4"/>
-    <row r="596" customFormat="1" s="4"/>
-    <row r="597" customFormat="1" s="4"/>
-    <row r="598" customFormat="1" s="4"/>
-    <row r="599" customFormat="1" s="4"/>
-    <row r="600" customFormat="1" s="4"/>
-    <row r="601" customFormat="1" s="4"/>
-    <row r="602" customFormat="1" s="4"/>
-    <row r="603" customFormat="1" s="4"/>
-    <row r="604" customFormat="1" s="4"/>
-    <row r="605" customFormat="1" s="4"/>
-    <row r="606" customFormat="1" s="4"/>
-    <row r="607" customFormat="1" s="4"/>
-    <row r="608" customFormat="1" s="4"/>
-    <row r="609" customFormat="1" s="4"/>
-    <row r="610" customFormat="1" s="4"/>
-    <row r="611" customFormat="1" s="4"/>
-    <row r="612" customFormat="1" s="4"/>
-    <row r="613" customFormat="1" s="4"/>
-    <row r="614" customFormat="1" s="4"/>
-    <row r="615" customFormat="1" s="4"/>
-    <row r="616" customFormat="1" s="4"/>
-    <row r="617" customFormat="1" s="4"/>
-    <row r="618" customFormat="1" s="4"/>
-    <row r="619" customFormat="1" s="4"/>
-    <row r="620" customFormat="1" s="4"/>
-    <row r="621" customFormat="1" s="4"/>
-    <row r="622" customFormat="1" s="4"/>
-    <row r="623" customFormat="1" s="4"/>
-    <row r="624" customFormat="1" s="4"/>
-    <row r="625" customFormat="1" s="4"/>
-    <row r="626" customFormat="1" s="4"/>
-    <row r="627" customFormat="1" s="4"/>
-    <row r="628" customFormat="1" s="4"/>
-    <row r="629" customFormat="1" s="4"/>
-    <row r="630" customFormat="1" s="4"/>
-    <row r="631" customFormat="1" s="4"/>
-    <row r="632" customFormat="1" s="4"/>
-    <row r="633" customFormat="1" s="4"/>
-    <row r="634" customFormat="1" s="4"/>
-    <row r="635" customFormat="1" s="4"/>
-    <row r="636" customFormat="1" s="4"/>
-    <row r="637" customFormat="1" s="4"/>
-    <row r="638" customFormat="1" s="4"/>
-    <row r="639" customFormat="1" s="4"/>
-    <row r="640" customFormat="1" s="4"/>
-    <row r="641" customFormat="1" s="4"/>
-    <row r="642" customFormat="1" s="4"/>
-    <row r="643" customFormat="1" s="4"/>
-    <row r="644" customFormat="1" s="4"/>
-    <row r="645" customFormat="1" s="4"/>
-    <row r="646" customFormat="1" s="4"/>
-    <row r="647" customFormat="1" s="4"/>
-    <row r="648" customFormat="1" s="4"/>
-    <row r="649" customFormat="1" s="4"/>
-    <row r="650" customFormat="1" s="4"/>
-    <row r="651" customFormat="1" s="4"/>
-    <row r="652" customFormat="1" s="4"/>
-    <row r="653" customFormat="1" s="4"/>
-    <row r="654" customFormat="1" s="4"/>
-    <row r="655" customFormat="1" s="4"/>
-    <row r="656" customFormat="1" s="4"/>
-    <row r="657" customFormat="1" s="4"/>
-    <row r="658" customFormat="1" s="4"/>
-    <row r="659" customFormat="1" s="4"/>
-    <row r="660" customFormat="1" s="4"/>
-    <row r="661" customFormat="1" s="4"/>
-    <row r="662" customFormat="1" s="4"/>
-    <row r="663" customFormat="1" s="4"/>
-    <row r="664" customFormat="1" s="4"/>
-    <row r="665" customFormat="1" s="4"/>
-    <row r="666" customFormat="1" s="4"/>
-    <row r="667" customFormat="1" s="4"/>
-    <row r="668" customFormat="1" s="4"/>
-    <row r="669" customFormat="1" s="4"/>
-    <row r="670" customFormat="1" s="4"/>
-    <row r="671" customFormat="1" s="4"/>
-    <row r="672" customFormat="1" s="4"/>
-    <row r="673" customFormat="1" s="4"/>
-    <row r="674" customFormat="1" s="4"/>
-    <row r="675" customFormat="1" s="4"/>
-    <row r="676" customFormat="1" s="4"/>
-    <row r="677" customFormat="1" s="4"/>
-    <row r="678" customFormat="1" s="4"/>
-    <row r="679" customFormat="1" s="4"/>
-    <row r="680" customFormat="1" s="4"/>
-    <row r="681" customFormat="1" s="4"/>
-    <row r="682" customFormat="1" s="4"/>
-    <row r="683" customFormat="1" s="4"/>
-    <row r="684" customFormat="1" s="4"/>
-    <row r="685" customFormat="1" s="4"/>
-    <row r="686" customFormat="1" s="4"/>
-    <row r="687" customFormat="1" s="4"/>
-    <row r="688" customFormat="1" s="4"/>
-    <row r="689" customFormat="1" s="4"/>
-    <row r="690" customFormat="1" s="4"/>
-    <row r="691" customFormat="1" s="4"/>
-    <row r="692" customFormat="1" s="4"/>
-    <row r="693" customFormat="1" s="4"/>
-    <row r="694" customFormat="1" s="4"/>
-    <row r="695" customFormat="1" s="4"/>
-    <row r="696" customFormat="1" s="4"/>
-    <row r="697" customFormat="1" s="4"/>
-    <row r="698" customFormat="1" s="4"/>
-    <row r="699" customFormat="1" s="4"/>
-    <row r="700" customFormat="1" s="4"/>
-    <row r="701" customFormat="1" s="4"/>
-    <row r="702" customFormat="1" s="4"/>
-    <row r="703" customFormat="1" s="4"/>
-    <row r="704" customFormat="1" s="4"/>
-    <row r="705" customFormat="1" s="4"/>
-    <row r="706" customFormat="1" s="4"/>
-    <row r="707" customFormat="1" s="4"/>
-    <row r="708" customFormat="1" s="4"/>
-    <row r="709" customFormat="1" s="4"/>
-    <row r="710" customFormat="1" s="4"/>
-    <row r="711" customFormat="1" s="4"/>
-    <row r="712" customFormat="1" s="4"/>
-    <row r="713" customFormat="1" s="4"/>
-    <row r="714" customFormat="1" s="4"/>
-    <row r="715" customFormat="1" s="4"/>
-    <row r="716" customFormat="1" s="4"/>
-    <row r="717" customFormat="1" s="4"/>
-    <row r="718" customFormat="1" s="4"/>
-    <row r="719" customFormat="1" s="4"/>
-    <row r="720" customFormat="1" s="4"/>
-    <row r="721" customFormat="1" s="4"/>
-    <row r="722" customFormat="1" s="4"/>
-    <row r="723" customFormat="1" s="4"/>
-    <row r="724" customFormat="1" s="4"/>
-    <row r="725" customFormat="1" s="4"/>
-    <row r="726" customFormat="1" s="4"/>
-    <row r="727" customFormat="1" s="4"/>
-    <row r="728" customFormat="1" s="4"/>
-    <row r="729" customFormat="1" s="4"/>
-    <row r="730" customFormat="1" s="4"/>
-    <row r="731" customFormat="1" s="4"/>
-    <row r="732" customFormat="1" s="4"/>
-    <row r="733" customFormat="1" s="4"/>
-    <row r="734" customFormat="1" s="4"/>
-    <row r="735" customFormat="1" s="4"/>
-    <row r="736" customFormat="1" s="4"/>
-    <row r="737" customFormat="1" s="4"/>
-    <row r="738" customFormat="1" s="4"/>
-    <row r="739" customFormat="1" s="4"/>
+    <row r="2" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="506" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="536" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="557" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="566" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="577" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="578" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="579" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="580" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="581" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="582" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="583" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="584" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="585" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="586" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="587" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="588" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="589" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="590" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="591" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="592" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="593" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="594" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="596" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="597" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="598" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="599" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="600" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="601" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="602" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="603" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="604" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="605" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="606" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="607" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="609" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="610" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="611" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="612" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="613" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="614" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="615" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="616" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="617" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="618" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="619" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="620" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="621" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="622" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="623" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="624" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="625" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="626" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="627" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="628" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="629" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="630" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="631" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="632" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="633" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="634" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="635" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="636" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="637" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="638" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="639" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="640" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="641" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="642" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="643" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="644" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="645" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="646" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="647" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="648" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="649" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="650" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="651" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="652" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="653" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="654" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="655" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="656" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="657" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="658" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="659" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="660" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="661" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="662" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="663" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="664" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="665" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="666" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="667" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="668" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="669" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="670" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="671" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="672" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="673" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="674" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="675" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="676" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="677" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="678" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="679" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="680" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="681" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="682" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="683" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="684" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="685" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="686" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="687" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="688" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="689" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="690" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="691" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="692" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="693" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="694" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="695" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="696" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="697" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="698" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="699" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="700" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="701" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="702" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="703" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="704" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="705" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="706" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="707" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="708" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="709" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="710" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="711" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="712" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="713" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="714" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="715" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="716" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="717" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="718" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="719" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="720" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="721" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="722" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="723" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="724" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="725" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="726" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="727" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="728" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="729" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="730" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="731" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="732" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="733" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="734" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="735" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="736" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="737" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="738" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="739" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja25">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="16.140625" customWidth="1" style="1" min="1" max="6"/>
-    <col width="50.7109375" customWidth="1" min="7" max="7"/>
+    <col min="1" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
-        <is>
-          <t>1. Incendios forestales. 2023</t>
-        </is>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="8" t="n"/>
-      <c r="D1" s="8" t="n"/>
-      <c r="E1" s="8" t="n"/>
-      <c r="F1" s="8" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="n"/>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="8" t="n"/>
-      <c r="E2" s="8" t="n"/>
-      <c r="F2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customFormat="1" customHeight="1" s="2">
-      <c r="A3" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total Incendios </t>
-        </is>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
       </c>
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>Total m2 quemados</t>
-        </is>
+      <c r="B3" s="16" t="s">
+        <v>1</v>
       </c>
-      <c r="C3" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Menos de 5.000 m2 quemados </t>
-        </is>
+      <c r="C3" s="18" t="s">
+        <v>4</v>
       </c>
-      <c r="D3" s="22" t="n"/>
-      <c r="E3" s="20" t="inlineStr">
-        <is>
-          <t>Más de 5.000 m2 quemados</t>
-        </is>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
+        <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="18.75" customFormat="1" customHeight="1" s="1">
-      <c r="A4" s="22" t="n"/>
-      <c r="B4" s="22" t="n"/>
-      <c r="C4" s="9" t="inlineStr">
-        <is>
-          <t>Incendios</t>
-        </is>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
       </c>
-      <c r="D4" s="13" t="inlineStr">
-        <is>
-          <t>m2 quemados</t>
-        </is>
+      <c r="D4" s="13" t="s">
+        <v>3</v>
       </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>Incendios</t>
-        </is>
+      <c r="E4" s="9" t="s">
+        <v>2</v>
       </c>
-      <c r="F4" s="9" t="inlineStr">
-        <is>
-          <t>m2 quemados</t>
-        </is>
+      <c r="F4" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="10" t="n">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>10</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="10">
         <v>150138.15</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="10">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>5850.15</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="14">
         <v>1</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="14">
         <v>144288</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>Nota: Fecha incendios: 11/08/2023 (15 m2), 12/08/2023 (65 m2), 01/09/2023 (1.100 m2), 07/10/2023 (300 m2), 18/10/2023 (2 incendios, 4.331 m2), 20/10/2023 (9 m2), 21/10/2023 (3 incendios, 144.318 m2).</t>
-        </is>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
-      <c r="D6" s="10" t="n"/>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="14" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio Devesa Albufera. Ayuntamiento de València.</t>
-        </is>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
       </c>
-      <c r="B7" s="15" t="n"/>
-      <c r="C7" s="15" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="n"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="66" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja29">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F43"/>
+  <dimension ref="B1:AX43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" min="1" max="1"/>
-    <col width="75.42578125" customWidth="1" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="4" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="4" min="4" max="50"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="4" customWidth="1"/>
+    <col min="4" max="50" width="11.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="4" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-    </row>
-    <row r="3">
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="11" t="n"/>
-    </row>
-    <row r="4">
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="11" t="n"/>
-    </row>
-    <row r="5">
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="11" t="n"/>
-    </row>
-    <row r="6">
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="11" t="n"/>
-    </row>
-    <row r="7">
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="11" t="n"/>
-    </row>
-    <row r="8">
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="11" t="n"/>
-    </row>
-    <row r="9">
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="11" t="n"/>
-    </row>
-    <row r="11">
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="11" t="n"/>
-    </row>
-    <row r="12">
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="11" t="n"/>
-    </row>
-    <row r="13">
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="11" t="n"/>
-    </row>
-    <row r="14">
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-    </row>
-    <row r="15">
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="11" t="n"/>
-    </row>
-    <row r="16">
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="11" t="n"/>
-    </row>
-    <row r="17">
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="11" t="n"/>
-    </row>
-    <row r="18">
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="11" t="n"/>
-    </row>
-    <row r="19">
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="11" t="n"/>
-    </row>
-    <row r="20">
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="11" t="n"/>
-    </row>
-    <row r="21">
-      <c r="E21" s="3" t="n"/>
-      <c r="F21" s="11" t="n"/>
-    </row>
-    <row r="22">
-      <c r="E22" s="3" t="n"/>
-      <c r="F22" s="11" t="n"/>
-    </row>
-    <row r="23">
-      <c r="E23" s="3" t="n"/>
-      <c r="F23" s="3" t="n"/>
-    </row>
-    <row r="24">
-      <c r="E24" s="3" t="n"/>
-      <c r="F24" s="3" t="n"/>
-    </row>
-    <row r="25">
-      <c r="E25" s="3" t="n"/>
-      <c r="F25" s="11" t="n"/>
-    </row>
-    <row r="26">
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="3" t="n"/>
-    </row>
-    <row r="27">
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="3" t="n"/>
-    </row>
-    <row r="28">
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="3" t="n"/>
-    </row>
-    <row r="29">
-      <c r="E29" s="12" t="n"/>
-      <c r="F29" s="3" t="n"/>
-    </row>
-    <row r="30">
-      <c r="E30" s="12" t="n"/>
-      <c r="F30" s="3" t="n"/>
-    </row>
-    <row r="31">
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="3" t="n"/>
-    </row>
-    <row r="32">
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="3" t="n"/>
-    </row>
-    <row r="33">
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="3" t="n"/>
-    </row>
-    <row r="34">
-      <c r="E34" s="3" t="n"/>
-      <c r="F34" s="3" t="n"/>
-    </row>
-    <row r="35">
-      <c r="E35" s="3" t="n"/>
-      <c r="F35" s="3" t="n"/>
-    </row>
-    <row r="36">
-      <c r="E36" s="3" t="n"/>
-      <c r="F36" s="3" t="n"/>
-    </row>
-    <row r="37">
-      <c r="E37" s="3" t="n"/>
-      <c r="F37" s="3" t="n"/>
-    </row>
-    <row r="38">
-      <c r="E38" s="3" t="n"/>
-      <c r="F38" s="3" t="n"/>
-    </row>
-    <row r="39">
-      <c r="E39" s="3" t="n"/>
-      <c r="F39" s="3" t="n"/>
-    </row>
-    <row r="40">
-      <c r="E40" s="3" t="n"/>
-      <c r="F40" s="3" t="n"/>
-    </row>
-    <row r="41">
-      <c r="E41" s="3" t="n"/>
-      <c r="F41" s="3" t="n"/>
-    </row>
-    <row r="42">
-      <c r="E42" s="3" t="n"/>
-      <c r="F42" s="3" t="n"/>
-    </row>
-    <row r="43">
-      <c r="E43" s="3" t="n"/>
-      <c r="F43" s="3" t="n"/>
+    <row r="1" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="AX1"/>
+    </row>
+    <row r="2" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E3" s="3"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E6" s="3"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E7" s="3"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E8" s="3"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E10" s="3"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E11" s="3"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E12" s="3"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E13" s="3"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E15" s="3"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="E16" s="3"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="3"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="3"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="3"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="3"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="3"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="3"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E25" s="3"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="12"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="12"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E28" s="12"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="12"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E30" s="12"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="12"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="12"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E33" s="12"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>